--- a/doc/物联网平台 - 接口规格定义 V0.1.xlsx
+++ b/doc/物联网平台 - 接口规格定义 V0.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhuhuazhen\hzyw-git\platform-design-doc\zhuhuazhen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\zhuhuazhen\test1\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3023,86 +3023,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>       in:[{</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>属性：值，属性</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>值</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>,...}]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>       out:{</a:t>
+            <a:t>        out:{</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
@@ -4576,7 +4497,7 @@
   <dimension ref="D3:Q93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+      <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/doc/物联网平台 - 接口规格定义 V0.1.xlsx
+++ b/doc/物联网平台 - 接口规格定义 V0.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="(盒子)设备接入-接口规格-主题" sheetId="16" r:id="rId1"/>
@@ -160,10 +160,6 @@
   </si>
   <si>
     <t>上报不需要请求结果么？可以不需要</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>metricInfoResponse</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -840,6 +836,10 @@
   </si>
   <si>
     <t>/hzyw/001/ns1/serviceid/iotpub</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>metricInfoResponse</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4357,66 +4357,66 @@
         <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F5" s="23"/>
       <c r="H5" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -4424,33 +4424,33 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="D7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -4496,7 +4496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:Q93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
@@ -4511,66 +4511,66 @@
   <sheetData>
     <row r="3" spans="4:17" x14ac:dyDescent="0.2">
       <c r="F3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
     <row r="5" spans="4:17" x14ac:dyDescent="0.2">
       <c r="F5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="4:17" x14ac:dyDescent="0.2">
       <c r="F6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="4:17" x14ac:dyDescent="0.2">
       <c r="F7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="4:17" x14ac:dyDescent="0.2">
       <c r="F8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
     <row r="14" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L14" s="2"/>
     </row>
     <row r="23" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D29" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E29" s="2"/>
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="4:11" x14ac:dyDescent="0.2">
       <c r="F30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="37" spans="4:15" x14ac:dyDescent="0.2">
@@ -4581,49 +4581,49 @@
     </row>
     <row r="44" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D44" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="4:11" x14ac:dyDescent="0.2">
       <c r="G52" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="4:11" x14ac:dyDescent="0.2">
       <c r="G53" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D59" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E60" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D80" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="93" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D93" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4639,7 +4639,7 @@
   <dimension ref="D5:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4659,59 +4659,59 @@
     </row>
     <row r="6" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D6" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="M7" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="4:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D8" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="4:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -4719,16 +4719,16 @@
         <v>21</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="4:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -4736,24 +4736,24 @@
         <v>22</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D11" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>25</v>
@@ -4762,12 +4762,12 @@
         <v>20</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D12" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>17</v>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="G12" s="6"/>
       <c r="L12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="4:18" x14ac:dyDescent="0.2">
@@ -4785,19 +4785,19 @@
         <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="5" t="s">
@@ -4812,7 +4812,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -4823,7 +4823,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -4831,29 +4831,29 @@
     </row>
     <row r="16" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D16" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="G16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M16" s="2"/>
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D17" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>16</v>
@@ -4862,10 +4862,10 @@
         <v>18</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -4895,34 +4895,34 @@
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C5" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
@@ -4933,16 +4933,16 @@
     </row>
     <row r="7" spans="2:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I7" s="14"/>
     </row>
@@ -4954,16 +4954,16 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C9" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
@@ -4974,38 +4974,38 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I11" s="14"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C12" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I12" s="19"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
@@ -5014,17 +5014,17 @@
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="E18" s="24" t="s">
         <v>124</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>125</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -5034,20 +5034,20 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="D19" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="E19" s="26" t="s">
         <v>129</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>130</v>
       </c>
       <c r="F19" s="27"/>
       <c r="G19" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
@@ -5056,17 +5056,17 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C20" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D20" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="26" t="s">
         <v>132</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>133</v>
       </c>
       <c r="F20" s="27"/>
       <c r="G20" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
@@ -5086,17 +5086,17 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C22" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="E22" s="26" t="s">
         <v>136</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>137</v>
       </c>
       <c r="F22" s="27"/>
       <c r="G22" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
@@ -5105,17 +5105,17 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C23" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="E23" s="26" t="s">
         <v>140</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>141</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
@@ -5124,17 +5124,17 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C24" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F24" s="27"/>
       <c r="G24" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>

--- a/doc/物联网平台 - 接口规格定义 V0.1.xlsx
+++ b/doc/物联网平台 - 接口规格定义 V0.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630" firstSheet="1" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="(盒子)设备接入-接口规格-主题" sheetId="16" r:id="rId1"/>
@@ -847,7 +847,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -909,6 +909,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -954,7 +960,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1014,13 +1020,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1104,6 +1149,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4496,8 +4550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:Q93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+    <sheetView topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4639,7 +4693,7 @@
   <dimension ref="D5:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5153,14 +5207,81 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="I7:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="7" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I19" s="30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I20" s="30">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/物联网平台 - 接口规格定义 V0.1.xlsx
+++ b/doc/物联网平台 - 接口规格定义 V0.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="(盒子)设备接入-接口规格-主题" sheetId="16" r:id="rId1"/>
@@ -3077,7 +3077,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>        out:{</a:t>
+            <a:t>        out:[{</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
@@ -3125,7 +3125,79 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>,...},</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>属性：值，属性</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>值</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>,...}</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN">
             <a:effectLst/>
@@ -4550,8 +4622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:Q93"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J65" sqref="J65"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5209,7 +5281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="I7:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8:I20"/>
     </sheetView>
   </sheetViews>
